--- a/projects/CGE_Generator/data/A_dur.xlsx
+++ b/projects/CGE_Generator/data/A_dur.xlsx
@@ -14,9 +14,12 @@
   <sheets>
     <sheet name="pV" sheetId="1" r:id="rId1"/>
     <sheet name="pM" sheetId="4" r:id="rId2"/>
-    <sheet name="h" sheetId="2" r:id="rId3"/>
-    <sheet name="g" sheetId="3" r:id="rId4"/>
+    <sheet name="V" sheetId="2" r:id="rId3"/>
+    <sheet name="M" sheetId="5" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>qD/n</t>
   </si>
@@ -65,12 +68,6 @@
     <t>vD/vD</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>gsvngs</t>
-  </si>
-  <si>
     <t>rDepr/s</t>
   </si>
   <si>
@@ -93,6 +90,12 @@
   </si>
   <si>
     <t>I_iM</t>
+  </si>
+  <si>
+    <t>svngs/s</t>
+  </si>
+  <si>
+    <t>svngs/n</t>
   </si>
 </sst>
 </file>
@@ -145,6 +148,88 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="p"/>
+      <sheetName val="f"/>
+      <sheetName val="i"/>
+      <sheetName val="h"/>
+      <sheetName val="g"/>
+      <sheetName val="maps"/>
+      <sheetName val="scale"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="14">
+          <cell r="C14">
+            <v>1.3313815266666664</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>0.66569076333333332</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>0.8115155399999997</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>1.6230310799999992</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="C2">
+            <v>2.50753647721938</v>
+          </cell>
+          <cell r="F2">
+            <v>10.832114400610871</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>9.9032119999900097</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1.01494731757511</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>3.1386835215507204E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="4">
+          <cell r="B4">
+            <v>1.61746637</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="1">
+          <cell r="A1">
+            <v>100000000</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,7 +498,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,13 +518,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -450,7 +535,8 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <f>[1]i!$C14/(F2+0.02)</f>
+        <v>14.01454238596491</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -464,13 +550,14 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <f>[1]i!$C15/(F3+0.02)</f>
+        <v>7.007271192982456</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -484,13 +571,14 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <f>[1]i!$C16/(F4+0.02)</f>
+        <v>8.5422688421052602</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -510,7 +598,8 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <f>[1]i!$C17/(F5+0.02)</f>
+        <v>17.084537684210517</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -542,13 +631,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -559,7 +648,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -570,7 +659,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -581,7 +670,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -592,7 +681,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -605,7 +694,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +718,8 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <f>-([1]h!$F$2-SUM([1]h!$C$2:$C$5)-[1]g!$B$4)/0.01</f>
+        <v>424.24345993891359</v>
       </c>
     </row>
   </sheetData>
@@ -639,34 +729,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
